--- a/water/excel/water extrapolation solutions.xlsx
+++ b/water/excel/water extrapolation solutions.xlsx
@@ -10,7 +10,6 @@
     <sheet name="monomer" sheetId="7" r:id="rId1"/>
     <sheet name="dimer" sheetId="8" r:id="rId2"/>
     <sheet name="extrap" sheetId="9" r:id="rId3"/>
-    <sheet name="approx" sheetId="10" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="1" hidden="1">dimer!$O$51:$O$52</definedName>
@@ -76,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="48">
   <si>
     <t>monomer</t>
   </si>
@@ -220,36 +219,6 @@
   </si>
   <si>
     <t>three step extrapolation</t>
-  </si>
-  <si>
-    <t>g09</t>
-  </si>
-  <si>
-    <t>delta</t>
-  </si>
-  <si>
-    <t>delta(kcal)</t>
-  </si>
-  <si>
-    <t>HF</t>
-  </si>
-  <si>
-    <t>MP2</t>
-  </si>
-  <si>
-    <t>CCSD(T)</t>
-  </si>
-  <si>
-    <t>estimated E(CCSD(T)/6z)</t>
-  </si>
-  <si>
-    <t>CCSD(T)/6Z is estimated</t>
-  </si>
-  <si>
-    <t>from DLPNO-CCSD(T)</t>
-  </si>
-  <si>
-    <t>approx</t>
   </si>
 </sst>
 </file>
@@ -781,7 +750,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="453">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1567,9 +1536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:B29"/>
-    </sheetView>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -2844,9 +2811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:O55"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A27" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
-    </sheetView>
+    <sheetView showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -3921,13 +3886,12 @@
       <c r="A47">
         <v>6</v>
       </c>
-      <c r="B47" s="4">
-        <f>approx!B16</f>
-        <v>-152.75218465449402</v>
+      <c r="B47" s="7">
+        <v>-152.752028</v>
       </c>
       <c r="C47" s="4">
         <f t="shared" si="17"/>
-        <v>-1.8985760364017779E-2</v>
+        <v>-1.882910586999742E-2</v>
       </c>
       <c r="D47" s="4">
         <f t="shared" si="18"/>
@@ -3935,7 +3899,7 @@
       </c>
       <c r="E47">
         <f t="shared" si="19"/>
-        <v>4.0939813645252211E-2</v>
+        <v>4.5087890673799515E-2</v>
       </c>
       <c r="G47" s="4">
         <f t="shared" si="20"/>
@@ -3943,7 +3907,7 @@
       </c>
       <c r="H47">
         <f t="shared" si="15"/>
-        <v>9.6646955933174516E-3</v>
+        <v>1.154483678988342E-2</v>
       </c>
       <c r="J47" s="4">
         <f t="shared" si="21"/>
@@ -3951,11 +3915,11 @@
       </c>
       <c r="K47">
         <f t="shared" si="16"/>
-        <v>2.3742659414125028E-4</v>
+        <v>5.2085737939376116E-5</v>
       </c>
       <c r="M47" s="4">
         <f t="shared" si="22"/>
-        <v>-0.61202906549402769</v>
+        <v>-0.61187241100000733</v>
       </c>
       <c r="N47" s="4">
         <f>O$51+O$52*$A47^-3</f>
@@ -3963,13 +3927,10 @@
       </c>
       <c r="O47">
         <f t="shared" si="23"/>
-        <v>3.4007186720596318E-6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15">
-      <c r="A49" t="s">
-        <v>55</v>
-      </c>
+        <v>4.4125231576323276E-6</v>
+      </c>
+    </row>
+    <row r="49" spans="4:15">
       <c r="D49" t="s">
         <v>30</v>
       </c>
@@ -3999,12 +3960,7 @@
         <v>0.71611304741196058</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
-      <c r="A50" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="4:15">
       <c r="D51" s="5" t="s">
         <v>34</v>
       </c>
@@ -4030,7 +3986,7 @@
         <v>-0.6217708555053989</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="4:15">
       <c r="D52" t="s">
         <v>4</v>
       </c>
@@ -4056,7 +4012,7 @@
         <v>1.8604393008605562</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="4:15">
       <c r="J53" t="s">
         <v>5</v>
       </c>
@@ -4064,7 +4020,7 @@
         <v>0.15922645719671116</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="4:15">
       <c r="D54" t="s">
         <v>36</v>
       </c>
@@ -4087,34 +4043,34 @@
         <v>0.18621098670657885</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="4:15">
       <c r="D55" t="s">
         <v>29</v>
       </c>
       <c r="E55" s="3">
         <f>($C47-D47)*627.509469</f>
-        <v>2.4105781145225174</v>
+        <v>2.5088802928816958</v>
       </c>
       <c r="G55" t="s">
         <v>29</v>
       </c>
       <c r="H55" s="3">
         <f>($C47-G47)*627.509469</f>
-        <v>1.1712304868349006</v>
+        <v>1.2695326651940793</v>
       </c>
       <c r="J55" t="s">
         <v>29</v>
       </c>
       <c r="K55" s="3">
         <f>($C47-J47)*627.509469</f>
-        <v>-0.18357475611562837</v>
+        <v>-8.5272577756449544E-2</v>
       </c>
       <c r="N55" t="s">
         <v>29</v>
       </c>
       <c r="O55" s="3">
         <f>(M47-N47)*627.509469</f>
-        <v>0.70823548737776731</v>
+        <v>0.80653766573694619</v>
       </c>
     </row>
   </sheetData>
@@ -4132,14 +4088,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
-    </sheetView>
+    <sheetView showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="7" width="11.5" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -4464,7 +4419,7 @@
       </c>
       <c r="M26" s="4">
         <f>dimer!B47</f>
-        <v>-152.75218465449402</v>
+        <v>-152.752028</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -4505,7 +4460,7 @@
       </c>
       <c r="M28" s="3">
         <f t="shared" si="1"/>
-        <v>-5.1245764688912949</v>
+        <v>-5.0262742905321156</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -4546,649 +4501,7 @@
       </c>
       <c r="M29" s="3">
         <f t="shared" si="3"/>
-        <v>-0.10457646889129535</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T16"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="2" max="5" width="11.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M1" t="s">
-        <v>51</v>
-      </c>
-      <c r="N1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>50</v>
-      </c>
-      <c r="R1" t="s">
-        <v>51</v>
-      </c>
-      <c r="S1" t="s">
-        <v>52</v>
-      </c>
-      <c r="T1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4">
-        <v>-76.026800076300006</v>
-      </c>
-      <c r="D2" s="4">
-        <v>-76.228482124921996</v>
-      </c>
-      <c r="E2" s="4">
-        <v>-76.241081254999997</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="7">
-        <v>2</v>
-      </c>
-      <c r="H2">
-        <v>-76.026800080000001</v>
-      </c>
-      <c r="I2">
-        <v>-76.228467393000003</v>
-      </c>
-      <c r="J2">
-        <v>-76.241111892253997</v>
-      </c>
-      <c r="M2" s="4">
-        <f t="shared" ref="M2:M4" si="0">H2-C2</f>
-        <v>-3.6999949770688545E-9</v>
-      </c>
-      <c r="N2" s="4">
-        <f t="shared" ref="N2:N4" si="1">I2-D2</f>
-        <v>1.4731921993416108E-5</v>
-      </c>
-      <c r="O2" s="4">
-        <f t="shared" ref="O2:O4" si="2">J2-E2</f>
-        <v>-3.0637253999543645E-5</v>
-      </c>
-      <c r="R2" s="3">
-        <f t="shared" ref="R2:T6" si="3">M2*627.509469</f>
-        <v>-2.3217818833631438E-6</v>
-      </c>
-      <c r="S2" s="3">
-        <f t="shared" ref="S2:T6" si="4">N2*627.509469</f>
-        <v>9.2444205474379627E-3</v>
-      </c>
-      <c r="T2" s="3">
-        <f t="shared" ref="T2:T6" si="5">O2*627.509469</f>
-        <v>-1.9225166988871757E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" s="4">
-        <v>-76.057131166199994</v>
-      </c>
-      <c r="D3" s="4">
-        <v>-76.318648659193997</v>
-      </c>
-      <c r="E3" s="4">
-        <v>-76.332205599000005</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="7">
-        <v>3</v>
-      </c>
-      <c r="H3">
-        <v>-76.057131229999996</v>
-      </c>
-      <c r="I3">
-        <v>-76.318623126000006</v>
-      </c>
-      <c r="J3">
-        <v>-76.332123487388003</v>
-      </c>
-      <c r="M3" s="4">
-        <f t="shared" si="0"/>
-        <v>-6.3800001726121991E-8</v>
-      </c>
-      <c r="N3" s="4">
-        <f t="shared" si="1"/>
-        <v>2.5533193991122971E-5</v>
-      </c>
-      <c r="O3" s="4">
-        <f t="shared" si="2"/>
-        <v>8.21116120022225E-5</v>
-      </c>
-      <c r="R3" s="3">
-        <f t="shared" si="3"/>
-        <v>-4.0035105205357893E-5</v>
-      </c>
-      <c r="S3" s="3">
-        <f t="shared" si="4"/>
-        <v>1.6022321003243564E-2</v>
-      </c>
-      <c r="T3" s="3">
-        <f t="shared" si="5"/>
-        <v>5.1525814046248668E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4" s="4">
-        <v>-76.064791591000002</v>
-      </c>
-      <c r="D4" s="4">
-        <v>-76.347638089051003</v>
-      </c>
-      <c r="E4" s="4">
-        <v>-76.359794729000001</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="7">
-        <v>4</v>
-      </c>
-      <c r="H4">
-        <v>-76.06479186</v>
-      </c>
-      <c r="I4">
-        <v>-76.347620977999995</v>
-      </c>
-      <c r="J4">
-        <v>-76.359667597720005</v>
-      </c>
-      <c r="M4" s="4">
-        <f>H4-C4</f>
-        <v>-2.6899999738816405E-7</v>
-      </c>
-      <c r="N4" s="4">
-        <f t="shared" si="1"/>
-        <v>1.7111051008100731E-5</v>
-      </c>
-      <c r="O4" s="4">
-        <f t="shared" si="2"/>
-        <v>1.2713127999575136E-4</v>
-      </c>
-      <c r="R4" s="3">
-        <f t="shared" si="3"/>
-        <v>-1.6880004552204819E-4</v>
-      </c>
-      <c r="S4" s="3">
-        <f t="shared" si="4"/>
-        <v>1.0737346532125203E-2</v>
-      </c>
-      <c r="T4" s="3">
-        <f t="shared" si="5"/>
-        <v>7.9776082003424245E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4">
-        <v>-76.067043497</v>
-      </c>
-      <c r="D5" s="4">
-        <v>-76.358593975114005</v>
-      </c>
-      <c r="E5" s="4">
-        <v>-76.369033290999994</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="7">
-        <v>5</v>
-      </c>
-      <c r="H5">
-        <v>-76.06704379</v>
-      </c>
-      <c r="I5">
-        <v>-76.358585450999996</v>
-      </c>
-      <c r="J5">
-        <v>-76.368907052289998</v>
-      </c>
-      <c r="M5" s="4">
-        <f>H5-C5</f>
-        <v>-2.9299999937393295E-7</v>
-      </c>
-      <c r="N5" s="4">
-        <f>I5-D5</f>
-        <v>8.5241140084235667E-6</v>
-      </c>
-      <c r="O5" s="4">
-        <f>J5-E5</f>
-        <v>1.2623870999561859E-4</v>
-      </c>
-      <c r="R5" s="3">
-        <f t="shared" si="3"/>
-        <v>-1.8386027402413698E-4</v>
-      </c>
-      <c r="S5" s="3">
-        <f t="shared" si="4"/>
-        <v>5.3489622551213334E-3</v>
-      </c>
-      <c r="T5" s="3">
-        <f t="shared" si="5"/>
-        <v>7.9215985876595604E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6" s="4">
-        <v>-76.067359510399996</v>
-      </c>
-      <c r="D6" s="4">
-        <v>-76.362605242422006</v>
-      </c>
-      <c r="E6" s="4">
-        <v>-76.372009061</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="7">
-        <v>6</v>
-      </c>
-      <c r="H6">
-        <v>-76.067359670000002</v>
-      </c>
-      <c r="I6">
-        <v>-76.362596941000007</v>
-      </c>
-      <c r="J6">
-        <v>-76.371960031081997</v>
-      </c>
-      <c r="M6" s="4">
-        <f>H6-C6</f>
-        <v>-1.5960000609993585E-7</v>
-      </c>
-      <c r="N6" s="4">
-        <f>I6-D6</f>
-        <v>8.3014219995902749E-6</v>
-      </c>
-      <c r="O6" s="4">
-        <f>J6-E6</f>
-        <v>4.9029918002929662E-5</v>
-      </c>
-      <c r="R6" s="3">
-        <f t="shared" ref="R5:R6" si="6">M6*627.509469</f>
-        <v>-1.001505150801675E-4</v>
-      </c>
-      <c r="S6" s="3">
-        <f t="shared" si="4"/>
-        <v>5.2092209109078115E-3</v>
-      </c>
-      <c r="T6" s="3">
-        <f t="shared" si="5"/>
-        <v>3.0766737811131931E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" t="s">
-        <v>8</v>
-      </c>
-      <c r="L8" t="s">
-        <v>49</v>
-      </c>
-      <c r="M8" t="s">
-        <v>51</v>
-      </c>
-      <c r="N8" t="s">
-        <v>52</v>
-      </c>
-      <c r="O8" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>50</v>
-      </c>
-      <c r="R8" t="s">
-        <v>51</v>
-      </c>
-      <c r="S8" t="s">
-        <v>52</v>
-      </c>
-      <c r="T8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" s="4">
-        <v>-152.062536249</v>
-      </c>
-      <c r="D9" s="4">
-        <v>-152.46871186459001</v>
-      </c>
-      <c r="E9" s="4">
-        <v>-152.49344701000001</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="7">
-        <v>2</v>
-      </c>
-      <c r="H9">
-        <v>-152.06253624999999</v>
-      </c>
-      <c r="I9">
-        <v>-152.46860336399999</v>
-      </c>
-      <c r="J9">
-        <v>-152.493419888007</v>
-      </c>
-      <c r="M9" s="4">
-        <f t="shared" ref="M9:O10" si="7">H9-C9</f>
-        <v>-9.999894245993346E-10</v>
-      </c>
-      <c r="N9" s="4">
-        <f t="shared" ref="N9:O10" si="8">I9-D9</f>
-        <v>1.0850059001654699E-4</v>
-      </c>
-      <c r="O9" s="4">
-        <f t="shared" ref="O9:O10" si="9">J9-E9</f>
-        <v>2.7121993014134205E-5</v>
-      </c>
-      <c r="R9" s="3">
-        <f t="shared" ref="R9:T12" si="10">M9*627.509469</f>
-        <v>-6.2750283283594394E-7</v>
-      </c>
-      <c r="S9" s="3">
-        <f t="shared" ref="S9:T13" si="11">N9*627.509469</f>
-        <v>6.8085147627470102E-2</v>
-      </c>
-      <c r="T9" s="3">
-        <f t="shared" ref="T9:T12" si="12">O9*627.509469</f>
-        <v>1.7019307434521062E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10" s="4">
-        <v>-152.12095506399999</v>
-      </c>
-      <c r="D10" s="4">
-        <v>-152.64698146201999</v>
-      </c>
-      <c r="E10" s="4">
-        <v>-152.67382173999999</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="7">
-        <v>3</v>
-      </c>
-      <c r="H10">
-        <v>-152.12095518999999</v>
-      </c>
-      <c r="I10">
-        <v>-152.64692520599999</v>
-      </c>
-      <c r="J10">
-        <v>-152.673558598613</v>
-      </c>
-      <c r="M10" s="4">
-        <f t="shared" si="7"/>
-        <v>-1.2600000331985939E-7</v>
-      </c>
-      <c r="N10" s="4">
-        <f t="shared" si="8"/>
-        <v>5.6256020002365403E-5</v>
-      </c>
-      <c r="O10" s="4">
-        <f t="shared" si="9"/>
-        <v>2.6314138699490286E-4</v>
-      </c>
-      <c r="R10" s="3">
-        <f t="shared" si="10"/>
-        <v>-7.9066195177243201E-5</v>
-      </c>
-      <c r="S10" s="3">
-        <f t="shared" si="11"/>
-        <v>3.5301185239737694E-2</v>
-      </c>
-      <c r="T10" s="3">
-        <f t="shared" si="12"/>
-        <v>0.16512371202509499</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11" s="4">
-        <v>-152.13551903699999</v>
-      </c>
-      <c r="D11" s="4">
-        <v>-152.70403056224001</v>
-      </c>
-      <c r="E11" s="4">
-        <v>-152.72821934000001</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="7">
-        <v>4</v>
-      </c>
-      <c r="H11">
-        <v>-152.13551957999999</v>
-      </c>
-      <c r="I11">
-        <v>-152.70399000800001</v>
-      </c>
-      <c r="J11">
-        <v>-152.727870090533</v>
-      </c>
-      <c r="M11" s="4">
-        <f>H11-C11</f>
-        <v>-5.4299999874274363E-7</v>
-      </c>
-      <c r="N11" s="4">
-        <f>I11-D11</f>
-        <v>4.055424000171115E-5</v>
-      </c>
-      <c r="O11" s="4">
-        <f>J11-E11</f>
-        <v>3.4924946700698456E-4</v>
-      </c>
-      <c r="R11" s="3">
-        <f t="shared" si="10"/>
-        <v>-3.4073764087805969E-4</v>
-      </c>
-      <c r="S11" s="3">
-        <f t="shared" si="11"/>
-        <v>2.5448169609172323E-2</v>
-      </c>
-      <c r="T11" s="3">
-        <f t="shared" si="12"/>
-        <v>0.2191573475900859</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="C12" s="4">
-        <v>-152.13963341499999</v>
-      </c>
-      <c r="D12" s="4">
-        <v>-152.72535493734</v>
-      </c>
-      <c r="E12" s="4">
-        <v>-152.74622400999999</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="7">
-        <v>5</v>
-      </c>
-      <c r="H12">
-        <v>-152.139634</v>
-      </c>
-      <c r="I12">
-        <v>-152.725327206</v>
-      </c>
-      <c r="J12">
-        <v>-152.74587636434899</v>
-      </c>
-      <c r="M12" s="4">
-        <f>H12-C12</f>
-        <v>-5.8500000932326657E-7</v>
-      </c>
-      <c r="N12" s="4">
-        <f>I12-D12</f>
-        <v>2.7731339997671967E-5</v>
-      </c>
-      <c r="O12" s="4">
-        <f>J12-E12</f>
-        <v>3.4764565100431355E-4</v>
-      </c>
-      <c r="R12" s="3">
-        <f t="shared" ref="R12" si="13">M12*627.509469</f>
-        <v>-3.6709304521543803E-4</v>
-      </c>
-      <c r="S12" s="3">
-        <f t="shared" si="11"/>
-        <v>1.7401678436597595E-2</v>
-      </c>
-      <c r="T12" s="3">
-        <f t="shared" si="12"/>
-        <v>0.21815093786187609</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="B13">
-        <v>6</v>
-      </c>
-      <c r="C13" s="4">
-        <v>-152.14015558899999</v>
-      </c>
-      <c r="D13" s="4">
-        <v>-152.73319889413</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="7">
-        <v>6</v>
-      </c>
-      <c r="H13">
-        <v>-152.14015592000001</v>
-      </c>
-      <c r="I13">
-        <v>-152.733161739</v>
-      </c>
-      <c r="J13">
-        <v>-152.75183700884301</v>
-      </c>
-      <c r="M13" s="4">
-        <f>H13-C13</f>
-        <v>-3.3100002383434912E-7</v>
-      </c>
-      <c r="N13" s="4">
-        <f t="shared" ref="N13" si="14">I13-D13</f>
-        <v>3.7155130002020087E-5</v>
-      </c>
-      <c r="R13" s="3">
-        <f>M13*627.509469</f>
-        <v>-2.0770564919527976E-4</v>
-      </c>
-      <c r="S13" s="3">
-        <f t="shared" si="11"/>
-        <v>2.3315195898193593E-2</v>
-      </c>
-      <c r="T13" s="3"/>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="B15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="B16" s="4">
-        <f>J13-O12</f>
-        <v>-152.75218465449402</v>
+        <v>-6.2742905321160336E-3</v>
       </c>
     </row>
   </sheetData>
